--- a/software_application.xlsx
+++ b/software_application.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/software application/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14E9A5-A974-6644-B069-864F514FF1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153E6AA7-7158-3F42-9ECE-42C0499FBE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21320" yWindow="700" windowWidth="31200" windowHeight="25900" activeTab="1" xr2:uid="{CEA6440A-0EE0-A142-B83F-FDC81E5FAD11}"/>
+    <workbookView xWindow="22180" yWindow="1960" windowWidth="31200" windowHeight="25900" activeTab="1" xr2:uid="{CEA6440A-0EE0-A142-B83F-FDC81E5FAD11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="232">
   <si>
     <t>P</t>
   </si>
@@ -715,9 +715,6 @@
   </si>
   <si>
     <t>R Y/Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>software for video developers, subpar to youtube, which has a bigger audience and you can store your portfolio there</t>
@@ -790,7 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -799,9 +796,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1188,11 +1183,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D02B17-16AE-2E4A-B540-325D040F6F76}">
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1267,7 +1262,7 @@
         <v>212</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>213</v>
@@ -1327,15 +1322,15 @@
         <v>37895</v>
       </c>
       <c r="N3" s="3">
-        <f>+M3/L3-1</f>
+        <f>IFERROR(IF(M3 = "", L3/K3-1, M3/L3-1), "")</f>
         <v>8.7156094902028247E-2</v>
       </c>
       <c r="O3" s="2">
-        <f>+I3/M3</f>
+        <f>IFERROR(IF(M3 = "", I3/L3,  I3/M3), "")</f>
         <v>7.0690692703522897</v>
       </c>
       <c r="P3" s="2">
-        <f>+F3/M3</f>
+        <f>IFERROR(IF(M3 = "", F3/L3, F3/M3), "")</f>
         <v>7.2168196331969918</v>
       </c>
       <c r="R3" s="3">
@@ -1391,15 +1386,15 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="3">
-        <f t="shared" ref="N3:N5" si="2">+L4/K4-1</f>
+        <f t="shared" ref="N4:N67" si="2">IFERROR(IF(M4 = "", L4/K4-1, M4/L4-1), "")</f>
         <v>0.10799113813179462</v>
       </c>
       <c r="O4" s="2">
-        <f>+I4/L4</f>
+        <f t="shared" ref="O4:O67" si="3">IFERROR(IF(M4 = "", I4/L4,  I4/M4), "")</f>
         <v>7.9613601488026049</v>
       </c>
       <c r="P4" s="2">
-        <f>+F4/L4</f>
+        <f t="shared" ref="P4:P67" si="4">IFERROR(IF(M4 = "", F4/L4, F4/M4), "")</f>
         <v>8.0663589862822604</v>
       </c>
       <c r="Q4" s="1">
@@ -1459,11 +1454,11 @@
         <v>0.22438970014491133</v>
       </c>
       <c r="O5" s="2">
-        <f>+I5/L5</f>
+        <f t="shared" si="3"/>
         <v>15.04942097596504</v>
       </c>
       <c r="P5" s="2">
-        <f>+F5/L5</f>
+        <f t="shared" si="4"/>
         <v>15.812713037144938</v>
       </c>
       <c r="Q5" s="1">
@@ -1523,15 +1518,15 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="3">
-        <f t="shared" ref="N6" si="3">+L6/K6-1</f>
+        <f t="shared" si="2"/>
         <v>0.13342149220489974</v>
       </c>
       <c r="O6" s="2">
-        <f>+I6/L6</f>
+        <f t="shared" si="3"/>
         <v>10.84260213939208</v>
       </c>
       <c r="P6" s="2">
-        <f>+F6/L6</f>
+        <f t="shared" si="4"/>
         <v>10.61460091126804</v>
       </c>
       <c r="Q6" s="1">
@@ -1590,15 +1585,15 @@
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="3">
-        <f t="shared" ref="N7:N11" si="4">+L7/K7-1</f>
+        <f t="shared" si="2"/>
         <v>0.17963573938467325</v>
       </c>
       <c r="O7" s="2">
-        <f>+I7/L7</f>
+        <f t="shared" si="3"/>
         <v>3.2989598437855285</v>
       </c>
       <c r="P7" s="2">
-        <f>+F7/L7</f>
+        <f t="shared" si="4"/>
         <v>3.5150906364545902</v>
       </c>
       <c r="Q7" s="1">
@@ -1657,15 +1652,15 @@
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6.6088539989562545E-2</v>
       </c>
       <c r="O8" s="2">
-        <f>+I8/L8</f>
+        <f t="shared" si="3"/>
         <v>6.5755987865184933</v>
       </c>
       <c r="P8" s="2">
-        <f>+F8/L8</f>
+        <f t="shared" si="4"/>
         <v>6.4836268660493896</v>
       </c>
       <c r="Q8" s="1">
@@ -1724,15 +1719,15 @@
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.43439634709649777</v>
       </c>
       <c r="O9" s="2">
-        <f>+I9/L9</f>
+        <f t="shared" si="3"/>
         <v>24.550991321852241</v>
       </c>
       <c r="P9" s="2">
-        <f>+F9/L9</f>
+        <f t="shared" si="4"/>
         <v>23.963302586835521</v>
       </c>
       <c r="Q9" s="1">
@@ -1793,15 +1788,15 @@
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>-6.6104328166025517E-2</v>
       </c>
       <c r="O10" s="2">
-        <f>+I10/L10</f>
+        <f t="shared" si="3"/>
         <v>200.63127750345231</v>
       </c>
       <c r="P10" s="2">
-        <f>+F10/L10</f>
+        <f t="shared" si="4"/>
         <v>185.19987085427741</v>
       </c>
       <c r="Q10" s="1">
@@ -1860,15 +1855,15 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.13478725844049344</v>
       </c>
       <c r="O11" s="2">
-        <f>+I11/L11</f>
+        <f t="shared" si="3"/>
         <v>15.746148859448637</v>
       </c>
       <c r="P11" s="2">
-        <f>+F11/L11</f>
+        <f t="shared" si="4"/>
         <v>15.782312930270722</v>
       </c>
       <c r="Q11" s="1">
@@ -1928,15 +1923,15 @@
         <v>8446</v>
       </c>
       <c r="N12" s="3">
-        <f>+M12/L12-1</f>
+        <f t="shared" si="2"/>
         <v>0.16352114616338342</v>
       </c>
       <c r="O12" s="2">
-        <f>+I12/M12</f>
+        <f t="shared" si="3"/>
         <v>7.3406346199384327</v>
       </c>
       <c r="P12" s="2">
-        <f>+F12/M12</f>
+        <f t="shared" si="4"/>
         <v>7.936538006156761</v>
       </c>
       <c r="Q12" s="1">
@@ -1995,15 +1990,15 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="3">
-        <f t="shared" ref="N13:N76" si="5">+L13/K13-1</f>
+        <f t="shared" si="2"/>
         <v>0.1394347502347113</v>
       </c>
       <c r="O13" s="2">
-        <f>+I13/L13</f>
+        <f t="shared" si="3"/>
         <v>9.9653030014774391</v>
       </c>
       <c r="P13" s="2">
-        <f>+F13/L13</f>
+        <f t="shared" si="4"/>
         <v>8.909103433344697</v>
       </c>
       <c r="Q13" s="1">
@@ -2059,30 +2054,30 @@
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.23310842638600127</v>
       </c>
       <c r="O14" s="2">
-        <f>+I14/L14</f>
+        <f t="shared" si="3"/>
         <v>13.605649101787892</v>
       </c>
       <c r="P14" s="2">
-        <f>+F14/L14</f>
+        <f t="shared" si="4"/>
         <v>13.945769089774867</v>
       </c>
       <c r="Q14" s="1">
         <f>1448.159-32.577</f>
         <v>1415.5820000000001</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="8">
         <f>3555.108/4358.603</f>
         <v>0.81565308884521026</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="8">
         <f>877.497/L14</f>
         <v>0.20132528702430572</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="8">
         <f>2184.111/L14</f>
         <v>0.50110344988979261</v>
       </c>
@@ -2127,30 +2122,30 @@
         <v>6131</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="5"/>
-        <v>9.8301698301698215E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.11533563762052035</v>
       </c>
       <c r="O15" s="2">
-        <f>+I15/M15</f>
+        <f t="shared" si="3"/>
         <v>9.6388843581797428</v>
       </c>
       <c r="P15" s="2">
-        <f>+F15/L15</f>
-        <v>10.677642350372931</v>
+        <f t="shared" si="4"/>
+        <v>9.5734790409394872</v>
       </c>
       <c r="Q15" s="1">
         <f>1607-40</f>
         <v>1567</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="8">
         <f>5553/M15</f>
         <v>0.90572500407763823</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="8">
         <f>+(2000+650)/M15</f>
         <v>0.43222965258522261</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="8">
         <f>1485/M15</f>
         <v>0.24221171097700211</v>
       </c>
@@ -2195,26 +2190,26 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.4163088414451499E-2</v>
       </c>
       <c r="O16" s="2">
-        <f>+I16/L16</f>
+        <f t="shared" si="3"/>
         <v>10.303678369827406</v>
       </c>
       <c r="P16" s="2">
-        <f>+F16/L16</f>
+        <f t="shared" si="4"/>
         <v>10.388573127609266</v>
       </c>
       <c r="Q16" s="1">
         <f>1897.7-161.4</f>
         <v>1736.3</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="8">
         <f>+(L16-1479.3)/L16</f>
         <v>0.71973931000511526</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="8">
         <f>1624.9/L16</f>
         <v>0.30784532898850009</v>
       </c>
@@ -2259,30 +2254,30 @@
         <v>3626.3960000000002</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="5"/>
-        <v>0.35864099544019612</v>
+        <f t="shared" si="2"/>
+        <v>0.29214687818124352</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" ref="O16:O79" si="6">+I17/M17</f>
+        <f t="shared" si="3"/>
         <v>14.027991703057252</v>
       </c>
       <c r="P17" s="2">
-        <f>+F17/L17</f>
-        <v>19.20323614309552</v>
+        <f t="shared" si="4"/>
+        <v>14.861496372707228</v>
       </c>
       <c r="Q17" s="1">
         <f>959.764-46.279</f>
         <v>913.48500000000001</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="8">
         <f>2411.723/M17</f>
         <v>0.66504678474165535</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="8">
         <f>1672.092/M17</f>
         <v>0.46108919158304829</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="8">
         <f>1783.379/M17</f>
         <v>0.4917772355804495</v>
       </c>
@@ -2327,30 +2322,30 @@
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.13476136016020535</v>
       </c>
       <c r="O18" s="2">
-        <f>+I18/L18</f>
+        <f t="shared" si="3"/>
         <v>28.259143896430096</v>
       </c>
       <c r="P18" s="2">
-        <f>+F18/L18</f>
+        <f t="shared" si="4"/>
         <v>26.983517792371117</v>
       </c>
       <c r="Q18" s="1">
         <f>632.964-8.884</f>
         <v>624.08000000000004</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="3">
         <f>+(L18-348.206) /L18</f>
         <v>0.79726303997726966</v>
       </c>
-      <c r="S18" s="10">
+      <c r="S18" s="3">
         <f>462.834/L18</f>
         <v>0.2694771432863316</v>
       </c>
-      <c r="T18" s="10">
+      <c r="T18" s="3">
         <f>171.94/L18</f>
         <v>0.10010911042976933</v>
       </c>
@@ -2396,22 +2391,22 @@
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.26119465748024662</v>
       </c>
       <c r="O19" s="2">
-        <f>+I19/L19</f>
+        <f t="shared" si="3"/>
         <v>12.979432430194372</v>
       </c>
       <c r="P19" s="2">
-        <f>+F19/L19</f>
+        <f t="shared" si="4"/>
         <v>13.939004009112329</v>
       </c>
       <c r="Q19" s="1">
         <f>870.603-34.719</f>
         <v>835.8839999999999</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R19" s="8">
         <f>2168.744/L19</f>
         <v>0.80794404448128454</v>
       </c>
@@ -2464,15 +2459,15 @@
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.21072098349022927</v>
       </c>
       <c r="O20" s="2">
-        <f>+I20/L20</f>
+        <f t="shared" si="3"/>
         <v>11.458945893593368</v>
       </c>
       <c r="P20" s="2">
-        <f>+F20/L20</f>
+        <f t="shared" si="4"/>
         <v>12.130875144608479</v>
       </c>
       <c r="Q20" s="1">
@@ -2532,15 +2527,15 @@
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.25625912071198087</v>
       </c>
-      <c r="O21" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="O21" s="2">
+        <f t="shared" si="3"/>
+        <v>11.364504864818878</v>
       </c>
       <c r="P21" s="2">
-        <f>+F21/L21</f>
+        <f t="shared" si="4"/>
         <v>12.150444261038903</v>
       </c>
       <c r="Q21" s="1">
@@ -2595,19 +2590,19 @@
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.12108642088434585</v>
       </c>
-      <c r="O22" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="O22" s="2">
+        <f t="shared" si="3"/>
+        <v>10.961247342460672</v>
       </c>
       <c r="P22" s="2">
-        <f>+F22/L22</f>
+        <f t="shared" si="4"/>
         <v>11.253335668146411</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R22" s="3">
         <f>2264.99/L22</f>
@@ -2630,34 +2625,63 @@
         <v>49</v>
       </c>
       <c r="D23" s="7">
-        <v>568.70000000000005</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>577</v>
+      </c>
+      <c r="E23" s="1">
+        <v>43.013800000000003</v>
+      </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+        <v>24818.962600000003</v>
+      </c>
+      <c r="G23" s="1">
+        <v>744.721</v>
+      </c>
+      <c r="H23" s="1">
+        <f>0+597.934</f>
+        <v>597.93399999999997</v>
+      </c>
       <c r="I23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+        <v>24672.175600000002</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1850.204</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1951.751</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2137.8029999999999</v>
+      </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P23" s="2" t="e">
-        <f>+F23/L23</f>
-        <v>#DIV/0!</v>
+      <c r="N23" s="3">
+        <f t="shared" si="2"/>
+        <v>9.5325684475120021E-2</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="3"/>
+        <v>11.54090231887597</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="4"/>
+        <v>11.609564866360467</v>
+      </c>
+      <c r="Q23" s="1">
+        <f>624.633-20.535</f>
+        <v>604.09800000000007</v>
+      </c>
+      <c r="R23" s="3">
+        <f>935.761/2137.803</f>
+        <v>0.43772087512273117</v>
+      </c>
+      <c r="S23" s="3">
+        <f>157.731/L23</f>
+        <v>7.3781821804909054E-2</v>
+      </c>
+      <c r="T23" s="3">
+        <f>117.939/L23</f>
+        <v>5.5168319999550942E-2</v>
       </c>
     </row>
     <row r="24" spans="2:20">
@@ -2668,34 +2692,64 @@
         <v>51</v>
       </c>
       <c r="D24" s="7">
-        <v>73.95</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>77.78</v>
+      </c>
+      <c r="E24" s="1">
+        <f>262.753519+42.480334</f>
+        <v>305.23385299999995</v>
+      </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+        <v>23741.089086339998</v>
+      </c>
+      <c r="G24" s="1">
+        <f>1349.38+6442.329</f>
+        <v>7791.7089999999998</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
       <c r="I24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15949.380086339999</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="2" t="e">
-        <f>+F24/L24</f>
-        <v>#DIV/0!</v>
+      <c r="K24" s="1">
+        <v>4392.96</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4527.2240000000002</v>
+      </c>
+      <c r="M24" s="1">
+        <v>4665.433</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0528420948466417E-2</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4186280429576419</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="4"/>
+        <v>5.0887214726564496</v>
+      </c>
+      <c r="Q24" s="1">
+        <f>1945.308-136.56</f>
+        <v>1808.748</v>
+      </c>
+      <c r="R24" s="3">
+        <f>3535.806/M24</f>
+        <v>0.75787306344341454</v>
+      </c>
+      <c r="S24" s="3">
+        <f>1541.307/4527.224</f>
+        <v>0.34045300166282916</v>
+      </c>
+      <c r="T24" s="3">
+        <f>852.415/4665.433</f>
+        <v>0.18270865748152421</v>
       </c>
     </row>
     <row r="25" spans="2:20">
@@ -2708,32 +2762,61 @@
       <c r="D25" s="7">
         <v>81.53</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>246.48622800000001</v>
+      </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+        <v>20096.022168840002</v>
+      </c>
+      <c r="G25" s="1">
+        <v>567.1</v>
+      </c>
+      <c r="H25" s="1">
+        <f>20+6989.6</f>
+        <v>7009.6</v>
+      </c>
       <c r="I25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+        <v>26538.522168840005</v>
+      </c>
+      <c r="J25" s="1">
+        <v>5283</v>
+      </c>
+      <c r="K25" s="1">
+        <v>5502.8</v>
+      </c>
+      <c r="L25" s="1">
+        <v>5882</v>
+      </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="2" t="e">
-        <f>+F25/L25</f>
-        <v>#DIV/0!</v>
+      <c r="N25" s="3">
+        <f t="shared" si="2"/>
+        <v>6.8910372901068495E-2</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="3"/>
+        <v>4.5118194778714731</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="4"/>
+        <v>3.416528760428426</v>
+      </c>
+      <c r="Q25" s="1">
+        <f>1388.6-4.8</f>
+        <v>1383.8</v>
+      </c>
+      <c r="R25" s="3">
+        <f>2863.6/5882</f>
+        <v>0.48684121047262835</v>
+      </c>
+      <c r="S25" s="3">
+        <f>584.2/5882</f>
+        <v>9.9319959197551863E-2</v>
+      </c>
+      <c r="T25" s="3">
+        <f>517.7/5882</f>
+        <v>8.8014280856851423E-2</v>
       </c>
     </row>
     <row r="26" spans="2:20">
@@ -2746,32 +2829,61 @@
       <c r="D26" s="7">
         <v>157</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>120.323542</v>
+      </c>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+        <v>18890.796094000001</v>
+      </c>
+      <c r="G26" s="1">
+        <v>196.33799999999999</v>
+      </c>
+      <c r="H26" s="1">
+        <f>524.864+1019.127</f>
+        <v>1543.991</v>
+      </c>
       <c r="I26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+        <v>20238.449094000003</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1933.347</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2097.0529999999999</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2298.4720000000002</v>
+      </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" s="2" t="e">
-        <f>+F26/L26</f>
-        <v>#DIV/0!</v>
+      <c r="N26" s="3">
+        <f t="shared" si="2"/>
+        <v>9.604859772261376E-2</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="3"/>
+        <v>8.8051753921735845</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="4"/>
+        <v>8.2188497810719472</v>
+      </c>
+      <c r="Q26" s="1">
+        <f>749.984-14.378</f>
+        <v>735.60599999999999</v>
+      </c>
+      <c r="R26" s="3">
+        <f>1853.656/L26</f>
+        <v>0.80647317000163576</v>
+      </c>
+      <c r="S26" s="3">
+        <f>558.954/L26</f>
+        <v>0.24318503771201036</v>
+      </c>
+      <c r="T26" s="3">
+        <f>433.047/L26</f>
+        <v>0.18840647177777237</v>
       </c>
     </row>
     <row r="27" spans="2:20">
@@ -2784,32 +2896,58 @@
       <c r="D27" s="7">
         <v>264.33</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>63.30836</v>
+      </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+        <v>16734.298798799999</v>
+      </c>
+      <c r="G27" s="1">
+        <v>181.81399999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
       <c r="I27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16552.4847988</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="K27" s="1">
+        <v>1044.1780000000001</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1127.482</v>
+      </c>
       <c r="M27" s="1"/>
-      <c r="N27" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" s="2" t="e">
-        <f>+F27/L27</f>
-        <v>#DIV/0!</v>
+      <c r="N27" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9779501196156177E-2</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="3"/>
+        <v>14.680930426206361</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="4"/>
+        <v>14.842187102587889</v>
+      </c>
+      <c r="Q27" s="1">
+        <f>339.886-4.432</f>
+        <v>335.45400000000001</v>
+      </c>
+      <c r="R27" s="3">
+        <f>744.906/1127.482</f>
+        <v>0.66068105743595018</v>
+      </c>
+      <c r="S27" s="3">
+        <f>490.767/L27</f>
+        <v>0.43527701550889503</v>
+      </c>
+      <c r="T27" s="3">
+        <f>206.114/L27</f>
+        <v>0.1828091268862829</v>
       </c>
     </row>
     <row r="28" spans="2:20">
@@ -2822,32 +2960,59 @@
       <c r="D28" s="7">
         <v>80.13</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>202.48972000000001</v>
+      </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>16225.501263599999</v>
+      </c>
+      <c r="G28" s="1">
+        <f>648.623+314.924</f>
+        <v>963.54700000000003</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15261.954263599999</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="2" t="e">
-        <f>+F28/L28</f>
-        <v>#DIV/0!</v>
+      <c r="K28" s="1">
+        <v>2515.915</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2761.8820000000001</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2976.739</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="2"/>
+        <v>7.7793692851468643E-2</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="3"/>
+        <v>5.1270716927483395</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="4"/>
+        <v>5.4507638269932297</v>
+      </c>
+      <c r="Q28" s="1">
+        <f>1017.272-96.988</f>
+        <v>920.28400000000011</v>
+      </c>
+      <c r="R28" s="3">
+        <f>2355.08/M28</f>
+        <v>0.79116106585091939</v>
+      </c>
+      <c r="S28" s="3">
+        <f>1160.993/M28</f>
+        <v>0.39002176542854444</v>
+      </c>
+      <c r="T28" s="3">
+        <f>588.455/M28</f>
+        <v>0.19768444596587073</v>
       </c>
     </row>
     <row r="29" spans="2:20">
@@ -2860,32 +3025,58 @@
       <c r="D29" s="7">
         <v>176.39</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>83.880712000000003</v>
+      </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+        <v>14795.718789679999</v>
+      </c>
+      <c r="G29" s="1">
+        <f>697.488+471.473</f>
+        <v>1168.961</v>
+      </c>
+      <c r="H29" s="1">
+        <f>178.966+672.828</f>
+        <v>851.79399999999998</v>
+      </c>
       <c r="I29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+        <v>14478.551789679999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>812.61400000000003</v>
+      </c>
+      <c r="K29" s="1">
+        <v>905.34100000000001</v>
+      </c>
+      <c r="L29" s="1">
+        <v>980.49699999999996</v>
+      </c>
       <c r="M29" s="1"/>
-      <c r="N29" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P29" s="2" t="e">
-        <f>+F29/L29</f>
-        <v>#DIV/0!</v>
+      <c r="N29" s="3">
+        <f t="shared" si="2"/>
+        <v>8.3014024549865617E-2</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="3"/>
+        <v>14.766543691291254</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="4"/>
+        <v>15.090019438794815</v>
+      </c>
+      <c r="R29" s="3">
+        <f>583.361/980.497</f>
+        <v>0.59496459448626571</v>
+      </c>
+      <c r="S29" s="3">
+        <f>199.033/L29</f>
+        <v>0.20299195204064877</v>
+      </c>
+      <c r="T29" s="3">
+        <f>269.381/L29</f>
+        <v>0.27473923938574007</v>
       </c>
     </row>
     <row r="30" spans="2:20">
@@ -2913,17 +3104,17 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O30" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P30" s="2" t="e">
-        <f>+F30/L30</f>
-        <v>#DIV/0!</v>
+      <c r="N30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O30" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P30" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="31" spans="2:20">
@@ -2951,17 +3142,17 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" s="2" t="e">
-        <f>+F31/L31</f>
-        <v>#DIV/0!</v>
+      <c r="N31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O31" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P31" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="32" spans="2:20">
@@ -2989,17 +3180,17 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O32" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P32" s="2" t="e">
-        <f>+F32/L32</f>
-        <v>#DIV/0!</v>
+      <c r="N32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O32" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P32" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="33" spans="2:16">
@@ -3027,17 +3218,17 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O33" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P33" s="2" t="e">
-        <f>+F33/L33</f>
-        <v>#DIV/0!</v>
+      <c r="N33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O33" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P33" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="34" spans="2:16">
@@ -3065,17 +3256,17 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O34" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P34" s="2" t="e">
-        <f>+F34/L34</f>
-        <v>#DIV/0!</v>
+      <c r="N34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O34" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P34" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="35" spans="2:16">
@@ -3103,17 +3294,17 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P35" s="2" t="e">
-        <f>+F35/L35</f>
-        <v>#DIV/0!</v>
+      <c r="N35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O35" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P35" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="36" spans="2:16">
@@ -3141,17 +3332,17 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O36" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P36" s="2" t="e">
-        <f>+F36/L36</f>
-        <v>#DIV/0!</v>
+      <c r="N36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O36" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P36" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="37" spans="2:16">
@@ -3179,17 +3370,17 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P37" s="2" t="e">
-        <f>+F37/L37</f>
-        <v>#DIV/0!</v>
+      <c r="N37" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O37" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P37" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="38" spans="2:16">
@@ -3217,17 +3408,17 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O38" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P38" s="2" t="e">
-        <f>+F38/L38</f>
-        <v>#DIV/0!</v>
+      <c r="N38" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P38" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="39" spans="2:16">
@@ -3255,17 +3446,17 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O39" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P39" s="2" t="e">
-        <f>+F39/L39</f>
-        <v>#DIV/0!</v>
+      <c r="N39" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P39" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="40" spans="2:16">
@@ -3293,17 +3484,17 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O40" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P40" s="2" t="e">
-        <f>+F40/L40</f>
-        <v>#DIV/0!</v>
+      <c r="N40" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P40" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="41" spans="2:16">
@@ -3328,17 +3519,17 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O41" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P41" s="2" t="e">
-        <f>+F41/L41</f>
-        <v>#DIV/0!</v>
+      <c r="N41" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P41" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="42" spans="2:16">
@@ -3366,17 +3557,17 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P42" s="2" t="e">
-        <f>+F42/L42</f>
-        <v>#DIV/0!</v>
+      <c r="N42" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O42" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P42" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="43" spans="2:16">
@@ -3404,17 +3595,17 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O43" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P43" s="2" t="e">
-        <f>+F43/L43</f>
-        <v>#DIV/0!</v>
+      <c r="N43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P43" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="44" spans="2:16">
@@ -3442,17 +3633,17 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O44" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P44" s="2" t="e">
-        <f>+F44/L44</f>
-        <v>#DIV/0!</v>
+      <c r="N44" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P44" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="45" spans="2:16">
@@ -3480,17 +3671,17 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O45" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P45" s="2" t="e">
-        <f>+F45/L45</f>
-        <v>#DIV/0!</v>
+      <c r="N45" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P45" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="46" spans="2:16">
@@ -3518,17 +3709,17 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O46" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P46" s="2" t="e">
-        <f>+F46/L46</f>
-        <v>#DIV/0!</v>
+      <c r="N46" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O46" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P46" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="47" spans="2:16">
@@ -3556,17 +3747,17 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O47" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P47" s="2" t="e">
-        <f>+F47/L47</f>
-        <v>#DIV/0!</v>
+      <c r="N47" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P47" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="48" spans="2:16">
@@ -3594,17 +3785,17 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O48" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P48" s="2" t="e">
-        <f>+F48/L48</f>
-        <v>#DIV/0!</v>
+      <c r="N48" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O48" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P48" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="49" spans="2:16">
@@ -3632,17 +3823,17 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O49" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P49" s="2" t="e">
-        <f>+F49/L49</f>
-        <v>#DIV/0!</v>
+      <c r="N49" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O49" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P49" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="50" spans="2:16">
@@ -3670,17 +3861,17 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O50" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P50" s="2" t="e">
-        <f>+F50/L50</f>
-        <v>#DIV/0!</v>
+      <c r="N50" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O50" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P50" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="51" spans="2:16">
@@ -3708,17 +3899,17 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O51" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P51" s="2" t="e">
-        <f>+F51/L51</f>
-        <v>#DIV/0!</v>
+      <c r="N51" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O51" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P51" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="52" spans="2:16">
@@ -3746,17 +3937,17 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O52" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P52" s="2" t="e">
-        <f>+F52/L52</f>
-        <v>#DIV/0!</v>
+      <c r="N52" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O52" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P52" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="53" spans="2:16">
@@ -3784,17 +3975,17 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O53" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P53" s="2" t="e">
-        <f>+F53/L53</f>
-        <v>#DIV/0!</v>
+      <c r="N53" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O53" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P53" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="54" spans="2:16">
@@ -3822,17 +4013,17 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O54" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P54" s="2" t="e">
-        <f>+F54/L54</f>
-        <v>#DIV/0!</v>
+      <c r="N54" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O54" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P54" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="55" spans="2:16">
@@ -3860,17 +4051,17 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O55" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P55" s="2" t="e">
-        <f>+F55/L55</f>
-        <v>#DIV/0!</v>
+      <c r="N55" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O55" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P55" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="56" spans="2:16">
@@ -3898,17 +4089,17 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O56" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P56" s="2" t="e">
-        <f>+F56/L56</f>
-        <v>#DIV/0!</v>
+      <c r="N56" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O56" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P56" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="57" spans="2:16">
@@ -3936,17 +4127,17 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O57" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P57" s="2" t="e">
-        <f>+F57/L57</f>
-        <v>#DIV/0!</v>
+      <c r="N57" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O57" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P57" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="58" spans="2:16">
@@ -3974,17 +4165,17 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O58" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P58" s="2" t="e">
-        <f>+F58/L58</f>
-        <v>#DIV/0!</v>
+      <c r="N58" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O58" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P58" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="59" spans="2:16">
@@ -4012,17 +4203,17 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O59" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P59" s="2" t="e">
-        <f>+F59/L59</f>
-        <v>#DIV/0!</v>
+      <c r="N59" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O59" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P59" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="60" spans="2:16">
@@ -4050,17 +4241,17 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O60" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P60" s="2" t="e">
-        <f>+F60/L60</f>
-        <v>#DIV/0!</v>
+      <c r="N60" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O60" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P60" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="61" spans="2:16">
@@ -4085,17 +4276,17 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O61" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P61" s="2" t="e">
-        <f>+F61/L61</f>
-        <v>#DIV/0!</v>
+      <c r="N61" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O61" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P61" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="62" spans="2:16">
@@ -4123,17 +4314,17 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O62" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P62" s="2" t="e">
-        <f>+F62/L62</f>
-        <v>#DIV/0!</v>
+      <c r="N62" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P62" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="63" spans="2:16">
@@ -4161,17 +4352,17 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O63" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P63" s="2" t="e">
-        <f>+F63/L63</f>
-        <v>#DIV/0!</v>
+      <c r="N63" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O63" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P63" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="64" spans="2:16">
@@ -4199,17 +4390,17 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-      <c r="N64" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O64" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P64" s="2" t="e">
-        <f>+F64/L64</f>
-        <v>#DIV/0!</v>
+      <c r="N64" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O64" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P64" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="65" spans="2:20">
@@ -4237,17 +4428,17 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O65" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P65" s="2" t="e">
-        <f>+F65/L65</f>
-        <v>#DIV/0!</v>
+      <c r="N65" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O65" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P65" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="66" spans="2:20">
@@ -4268,24 +4459,24 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6">
-        <f t="shared" ref="I66:I100" si="7">+F66-G66+H66</f>
+        <f t="shared" ref="I66:I100" si="5">+F66-G66+H66</f>
         <v>0</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O66" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P66" s="2" t="e">
-        <f>+F66/L66</f>
-        <v>#DIV/0!</v>
+      <c r="N66" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O66" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P66" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="67" spans="2:20">
@@ -4300,30 +4491,30 @@
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6">
-        <f t="shared" ref="F67:F101" si="8">+D67*E67</f>
+        <f t="shared" ref="F67:F101" si="6">+D67*E67</f>
         <v>0</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-      <c r="N67" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O67" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P67" s="2" t="e">
-        <f>+F67/L67</f>
-        <v>#DIV/0!</v>
+      <c r="N67" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O67" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P67" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="68" spans="2:20">
@@ -4338,30 +4529,30 @@
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O68" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P68" s="2" t="e">
-        <f>+F68/L68</f>
-        <v>#DIV/0!</v>
+      <c r="N68" s="3" t="str">
+        <f t="shared" ref="N68:N100" si="7">IFERROR(IF(M68 = "", L68/K68-1, M68/L68-1), "")</f>
+        <v/>
+      </c>
+      <c r="O68" s="2" t="str">
+        <f t="shared" ref="O68:O100" si="8">IFERROR(IF(M68 = "", I68/L68,  I68/M68), "")</f>
+        <v/>
+      </c>
+      <c r="P68" s="2" t="str">
+        <f t="shared" ref="P68:P101" si="9">IFERROR(IF(M68 = "", F68/L68, F68/M68), "")</f>
+        <v/>
       </c>
     </row>
     <row r="69" spans="2:20">
@@ -4376,30 +4567,30 @@
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O69" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P69" s="2" t="e">
-        <f>+F69/L69</f>
-        <v>#DIV/0!</v>
+      <c r="N69" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O69" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P69" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="70" spans="2:20">
@@ -4414,30 +4605,30 @@
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
-      <c r="N70" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O70" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P70" s="2" t="e">
-        <f>+F70/L70</f>
-        <v>#DIV/0!</v>
+      <c r="N70" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O70" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P70" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="71" spans="2:20">
@@ -4455,7 +4646,7 @@
         <v>132.738722</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3119.3599669999999</v>
       </c>
       <c r="G71" s="6">
@@ -4466,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2395.0329670000001</v>
       </c>
       <c r="J71" s="4">
@@ -4478,20 +4669,30 @@
       <c r="L71" s="1">
         <v>310.58199999999999</v>
       </c>
-      <c r="M71" s="1">
-        <v>390</v>
-      </c>
+      <c r="M71" s="1"/>
       <c r="N71" s="3">
-        <f>+L71/K71-1</f>
+        <f t="shared" si="7"/>
         <v>0.16412226615941061</v>
       </c>
       <c r="O71" s="2">
-        <f t="shared" si="6"/>
-        <v>6.141110171794872</v>
+        <f t="shared" si="8"/>
+        <v>7.7114351990778607</v>
       </c>
       <c r="P71" s="2">
-        <f>+F71/M71</f>
-        <v>7.9983588897435896</v>
+        <f t="shared" si="9"/>
+        <v>10.043595465931702</v>
+      </c>
+      <c r="R71" s="3">
+        <f>178.56/310.582</f>
+        <v>0.57492063287634187</v>
+      </c>
+      <c r="S71" s="3">
+        <f>214.167/L71</f>
+        <v>0.68956668448268088</v>
+      </c>
+      <c r="T71" s="3">
+        <f>201.365/L71</f>
+        <v>0.64834729636617705</v>
       </c>
     </row>
     <row r="72" spans="2:20">
@@ -4506,30 +4707,30 @@
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
-      <c r="N72" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O72" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P72" s="2" t="e">
-        <f>+F72/L72</f>
-        <v>#DIV/0!</v>
+      <c r="N72" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O72" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P72" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="73" spans="2:20">
@@ -4544,30 +4745,30 @@
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-      <c r="N73" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O73" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P73" s="2" t="e">
-        <f>+F73/L73</f>
-        <v>#DIV/0!</v>
+      <c r="N73" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O73" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P73" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="74" spans="2:20">
@@ -4585,7 +4786,7 @@
         <v>90.721867000000003</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2444.0470969800003</v>
       </c>
       <c r="G74" s="6">
@@ -4596,7 +4797,7 @@
         <v>1529.133</v>
       </c>
       <c r="I74" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3730.36909698</v>
       </c>
       <c r="J74" s="4">
@@ -4610,15 +4811,15 @@
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.9885303907640157E-2</v>
       </c>
-      <c r="O74" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="O74" s="2">
+        <f t="shared" si="8"/>
+        <v>1.5540646839291032</v>
       </c>
       <c r="P74" s="2">
-        <f>+F74/L74</f>
+        <f t="shared" si="9"/>
         <v>1.0181853807310881</v>
       </c>
       <c r="Q74" s="1">
@@ -4650,30 +4851,30 @@
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-      <c r="N75" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O75" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P75" s="2" t="e">
-        <f>+F75/L75</f>
-        <v>#DIV/0!</v>
+      <c r="N75" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O75" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P75" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="76" spans="2:20">
@@ -4688,30 +4889,30 @@
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
-      <c r="N76" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O76" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P76" s="2" t="e">
-        <f>+F76/L76</f>
-        <v>#DIV/0!</v>
+      <c r="N76" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O76" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P76" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="77" spans="2:20">
@@ -4726,30 +4927,30 @@
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-      <c r="N77" s="3" t="e">
-        <f t="shared" ref="N77:N93" si="9">+L77/K77-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O77" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P77" s="2" t="e">
-        <f>+F77/L77</f>
-        <v>#DIV/0!</v>
+      <c r="N77" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O77" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P77" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="78" spans="2:20">
@@ -4764,30 +4965,30 @@
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
-      <c r="N78" s="3" t="e">
+      <c r="N78" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O78" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P78" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O78" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P78" s="2" t="e">
-        <f>+F78/L78</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="79" spans="2:20">
@@ -4802,30 +5003,30 @@
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
-      <c r="N79" s="3" t="e">
+      <c r="N79" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O79" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P79" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O79" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P79" s="2" t="e">
-        <f>+F79/L79</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="80" spans="2:20">
@@ -4840,30 +5041,30 @@
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J80" s="4"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
-      <c r="N80" s="3" t="e">
+      <c r="N80" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O80" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P80" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O80" s="2" t="e">
-        <f t="shared" ref="O80:O100" si="10">+I80/M80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P80" s="2" t="e">
-        <f>+F80/L80</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="81" spans="2:23">
@@ -4875,30 +5076,30 @@
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J81" s="4"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
-      <c r="N81" s="3" t="e">
+      <c r="N81" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O81" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P81" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O81" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P81" s="2" t="e">
-        <f>+F81/L81</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="82" spans="2:23">
@@ -4913,30 +5114,30 @@
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
-      <c r="N82" s="3" t="e">
+      <c r="N82" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O82" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P82" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O82" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P82" s="2" t="e">
-        <f>+F82/L82</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="83" spans="2:23">
@@ -4951,30 +5152,30 @@
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J83" s="4"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
-      <c r="N83" s="3" t="e">
+      <c r="N83" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O83" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P83" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O83" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P83" s="2" t="e">
-        <f>+F83/L83</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="84" spans="2:23">
@@ -4989,30 +5190,30 @@
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J84" s="4"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
-      <c r="N84" s="3" t="e">
+      <c r="N84" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O84" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P84" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O84" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P84" s="2" t="e">
-        <f>+F84/L84</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="85" spans="2:23">
@@ -5025,34 +5226,38 @@
       <c r="D85" s="7">
         <v>16.25</v>
       </c>
-      <c r="E85" s="6"/>
+      <c r="E85" s="6">
+        <v>0</v>
+      </c>
       <c r="F85" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="I85" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="6">
+        <v>0</v>
+      </c>
+      <c r="H85" s="6">
+        <v>0</v>
+      </c>
+      <c r="I85" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="J85" s="4"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
-      <c r="N85" s="3" t="e">
+      <c r="N85" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O85" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P85" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O85" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P85" s="2" t="e">
-        <f>+F85/L85</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="86" spans="2:23">
@@ -5067,30 +5272,30 @@
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
-      <c r="N86" s="3" t="e">
+      <c r="N86" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O86" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P86" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O86" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P86" s="2" t="e">
-        <f>+F86/L86</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="87" spans="2:23">
@@ -5105,30 +5310,30 @@
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
-      <c r="N87" s="3" t="e">
+      <c r="N87" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O87" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P87" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O87" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P87" s="2" t="e">
-        <f>+F87/L87</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="88" spans="2:23">
@@ -5143,30 +5348,30 @@
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
-      <c r="N88" s="3" t="e">
+      <c r="N88" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O88" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P88" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O88" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P88" s="2" t="e">
-        <f>+F88/L88</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="89" spans="2:23">
@@ -5181,30 +5386,30 @@
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
-      <c r="N89" s="3" t="e">
+      <c r="N89" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O89" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P89" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O89" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P89" s="2" t="e">
-        <f>+F89/L89</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="90" spans="2:23">
@@ -5219,30 +5424,30 @@
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
-      <c r="N90" s="3" t="e">
+      <c r="N90" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O90" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P90" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O90" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P90" s="2" t="e">
-        <f>+F90/L90</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="91" spans="2:23">
@@ -5257,30 +5462,30 @@
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
-      <c r="N91" s="3" t="e">
+      <c r="N91" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O91" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P91" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O91" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P91" s="2" t="e">
-        <f>+F91/L91</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="2:23">
@@ -5295,30 +5500,30 @@
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
-      <c r="N92" s="3" t="e">
+      <c r="N92" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O92" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P92" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O92" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P92" s="2" t="e">
-        <f>+F92/L92</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="93" spans="2:23">
@@ -5333,30 +5538,30 @@
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
-      <c r="N93" s="3" t="e">
+      <c r="N93" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O93" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P93" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O93" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P93" s="2" t="e">
-        <f>+F93/L93</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="94" spans="2:23">
@@ -5373,7 +5578,7 @@
         <v>48</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1016.64</v>
       </c>
       <c r="G94" s="6">
@@ -5383,7 +5588,7 @@
         <v>271</v>
       </c>
       <c r="I94" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1125.6399999999999</v>
       </c>
       <c r="J94" s="4">
@@ -5397,15 +5602,15 @@
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="3">
-        <f t="shared" ref="N94:N100" si="11">+L94/K94-1</f>
+        <f t="shared" si="7"/>
         <v>8.5526315789473673E-2</v>
       </c>
-      <c r="O94" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="O94" s="2">
+        <f t="shared" si="8"/>
+        <v>3.4110303030303029</v>
       </c>
       <c r="P94" s="2">
-        <f>+F94/L94</f>
+        <f t="shared" si="9"/>
         <v>3.0807272727272728</v>
       </c>
     </row>
@@ -5423,7 +5628,7 @@
         <v>11</v>
       </c>
       <c r="F95" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>946</v>
       </c>
       <c r="G95" s="4">
@@ -5433,7 +5638,7 @@
         <v>119</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>915</v>
       </c>
       <c r="J95" s="4"/>
@@ -5445,19 +5650,19 @@
       </c>
       <c r="M95" s="4"/>
       <c r="N95" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0.29078014184397172</v>
       </c>
-      <c r="O95" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="O95" s="2">
+        <f t="shared" si="8"/>
+        <v>1.6758241758241759</v>
       </c>
       <c r="P95" s="2">
-        <f>+F95/L95</f>
+        <f t="shared" si="9"/>
         <v>1.7326007326007327</v>
       </c>
       <c r="W95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="2:23">
@@ -5474,7 +5679,7 @@
         <v>140.30000000000001</v>
       </c>
       <c r="F96" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>948.428</v>
       </c>
       <c r="G96" s="4">
@@ -5484,7 +5689,7 @@
         <v>344.5</v>
       </c>
       <c r="I96" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>984.72800000000007</v>
       </c>
       <c r="J96" s="4">
@@ -5500,16 +5705,16 @@
         <v>580</v>
       </c>
       <c r="N96" s="3">
-        <f t="shared" si="11"/>
-        <v>7.4505928853755066E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.6764759977928856E-2</v>
       </c>
       <c r="O96" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.6978068965517243</v>
       </c>
       <c r="P96" s="2">
-        <f>+F96/L96</f>
-        <v>1.7443958065109433</v>
+        <f t="shared" si="9"/>
+        <v>1.6352206896551724</v>
       </c>
       <c r="Q96" s="1">
         <v>-11</v>
@@ -5528,7 +5733,7 @@
         <v>4.2141667304893922</v>
       </c>
       <c r="W96" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="2:23">
@@ -5545,7 +5750,7 @@
         <v>256</v>
       </c>
       <c r="F97" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>944.64</v>
       </c>
       <c r="G97" s="4">
@@ -5555,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>846.64</v>
       </c>
       <c r="J97" s="4">
@@ -5569,15 +5774,15 @@
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>3.1847133757961776E-2</v>
       </c>
-      <c r="O97" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="O97" s="2">
+        <f t="shared" si="8"/>
+        <v>5.2261728395061731</v>
       </c>
       <c r="P97" s="2">
-        <f>+F97/L97</f>
+        <f t="shared" si="9"/>
         <v>5.8311111111111114</v>
       </c>
       <c r="R97" s="3">
@@ -5590,7 +5795,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="W97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="2:23">
@@ -5607,7 +5812,7 @@
         <v>165</v>
       </c>
       <c r="F98" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>887.69999999999993</v>
       </c>
       <c r="G98" s="4">
@@ -5617,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>562.69999999999993</v>
       </c>
       <c r="J98" s="4">
@@ -5633,15 +5838,15 @@
         <v>417</v>
       </c>
       <c r="N98" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O98" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.3494004796163068</v>
       </c>
       <c r="P98" s="2">
-        <f>+F98/L98</f>
+        <f t="shared" si="9"/>
         <v>2.1287769784172661</v>
       </c>
       <c r="Q98" s="1">
@@ -5661,7 +5866,7 @@
         <v>1.6844301173889391</v>
       </c>
       <c r="W98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="2:23">
@@ -5678,7 +5883,7 @@
         <v>39</v>
       </c>
       <c r="F99" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>843.56999999999994</v>
       </c>
       <c r="G99" s="4">
@@ -5689,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>728.68499999999995</v>
       </c>
       <c r="J99" s="4">
@@ -5705,16 +5910,16 @@
         <v>206</v>
       </c>
       <c r="N99" s="3">
-        <f t="shared" si="11"/>
-        <v>7.8313253012048278E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.15083798882681565</v>
       </c>
       <c r="O99" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3.5373058252427181</v>
       </c>
       <c r="P99" s="2">
-        <f>+F99/L99</f>
-        <v>4.71268156424581</v>
+        <f t="shared" si="9"/>
+        <v>4.0949999999999998</v>
       </c>
       <c r="Q99" s="1">
         <v>-7</v>
@@ -5750,7 +5955,7 @@
         <v>63.1</v>
       </c>
       <c r="F100" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>817.77600000000007</v>
       </c>
       <c r="G100" s="4">
@@ -5760,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>612.77600000000007</v>
       </c>
       <c r="J100" s="4">
@@ -5774,15 +5979,15 @@
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0.29596412556053808</v>
       </c>
-      <c r="O100" s="2" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="O100" s="2">
+        <f t="shared" si="8"/>
+        <v>2.1203321799307959</v>
       </c>
       <c r="P100" s="2">
-        <f>+F100/L100</f>
+        <f t="shared" si="9"/>
         <v>2.8296747404844291</v>
       </c>
       <c r="Q100" s="1">
@@ -5818,7 +6023,7 @@
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G101" s="4"/>
@@ -5831,9 +6036,9 @@
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
-      <c r="P101" s="2" t="e">
-        <f>+F101/L101</f>
-        <v>#DIV/0!</v>
+      <c r="P101" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="102" spans="2:23">
